--- a/5_remot/remote.xlsx
+++ b/5_remot/remote.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7170" windowHeight="5490"/>
@@ -21,18 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
-    <t>由于Ddos攻击不能持续，所以我们只测量了峰值时段的概率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并且由于峰值时间不稳定，所以峰值边缘概率会降低。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>workers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,14 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU Usage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Activation Probability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,12 +40,85 @@
     <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Average CPU Usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>由于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ddos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>攻击不能持续，所以我们只测量了峰值时段的概率。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>并且由于峰值时间不稳定，所以峰值边缘概率会降低。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>负载</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +132,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -107,20 +172,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -243,7 +309,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CPU Usage</c:v>
+                  <c:v>Average CPU Usage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -286,19 +352,19 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -335,25 +401,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0">
-                    <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                    <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                    <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0">
-                    <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                    <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                    <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                  </a:rPr>
-                  <a:t>Number of DoS Attackers </a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of DDoS Attackers </a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
-                  <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                  <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                  <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -361,8 +415,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.3000037935637449"/>
-              <c:y val="0.82319481465595012"/>
+              <c:x val="0.28731022102815973"/>
+              <c:y val="0.84875382589955795"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -371,20 +425,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400">
-                <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="50236800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -396,35 +436,38 @@
         <c:axId val="50236800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="0.8"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400">
-                <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-                <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="67619328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
@@ -432,27 +475,13 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16105850439677524"/>
-          <c:y val="7.9935286777677375E-2"/>
-          <c:w val="0.41175325285405573"/>
-          <c:h val="0.21628294823802763"/>
+          <c:x val="0.10774548078672191"/>
+          <c:y val="7.1415561872657282E-2"/>
+          <c:w val="0.4929921459741371"/>
+          <c:h val="0.13960571222526896"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400">
-              <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-              <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="34" charset="-122"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -463,6 +492,18 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0">
+          <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -476,15 +517,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>598170</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>569595</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -778,51 +819,52 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.03</v>
       </c>
       <c r="D4" s="1"/>
@@ -830,38 +872,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="1"/>
@@ -869,12 +911,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="1"/>
@@ -882,34 +924,34 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>20</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>30</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" s="6">
@@ -918,55 +960,55 @@
       <c r="D15" s="6">
         <v>0.15</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <v>0.26</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="7">
         <v>0.38</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="7">
         <v>0.5</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7">
         <v>0.03</v>
       </c>
       <c r="C16" s="6">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="D16" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="E16" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F16" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F16" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="G16" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
